--- a/protected/commands/template/m_template_lirun.xlsx
+++ b/protected/commands/template/m_template_lirun.xlsx
@@ -1551,13 +1551,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="46">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1663,12 +1663,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="新細明體"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1694,8 +1688,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1708,44 +1743,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1764,6 +1774,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1772,55 +1789,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1844,6 +1815,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1851,14 +1838,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1920,7 +1914,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1932,25 +1998,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1962,73 +2016,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2046,31 +2040,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2082,31 +2076,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2118,7 +2100,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2130,7 +2130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2142,19 +2142,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2285,21 +2279,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2314,17 +2293,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2347,15 +2335,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -2371,6 +2350,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2378,15 +2372,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2416,237 +2401,246 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2669,10 +2663,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
@@ -2693,7 +2687,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2711,10 +2705,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2732,7 +2726,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2744,31 +2738,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="68" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2783,28 +2777,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2813,16 +2807,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2831,10 +2825,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -2846,7 +2840,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2861,16 +2855,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2882,40 +2876,40 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -2927,19 +2921,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2948,25 +2942,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2978,49 +2972,49 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="17" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="10" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3032,25 +3026,25 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="10" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3059,25 +3053,25 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="68" applyFont="1" applyBorder="1">
@@ -3089,16 +3083,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="177" fontId="11" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3109,10 +3103,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="差" xfId="6" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="9"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="7"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -3144,26 +3138,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 輔色1" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="43"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="42"/>
+    <cellStyle name="40% - 輔色1" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% - 輔色1" xfId="47"/>
-    <cellStyle name="40% - 輔色3" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="48"/>
+    <cellStyle name="40% - 輔色3" xfId="49"/>
+    <cellStyle name="60% - 輔色1" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="60% - 輔色2" xfId="52"/>
-    <cellStyle name="40% - 輔色4" xfId="53"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
-    <cellStyle name="合計" xfId="55"/>
-    <cellStyle name="20% - 輔色6" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="合計" xfId="53"/>
+    <cellStyle name="20% - 輔色6" xfId="54"/>
+    <cellStyle name="40% - 輔色4" xfId="55"/>
+    <cellStyle name="60% - 輔色2" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="60% - 輔色3" xfId="59"/>
-    <cellStyle name="40% - 輔色5" xfId="60"/>
+    <cellStyle name="40% - 輔色5" xfId="59"/>
+    <cellStyle name="60% - 輔色3" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3528,8 +3522,8 @@
   <sheetPr/>
   <dimension ref="A1:H253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/protected/commands/template/m_template_lirun.xlsx
+++ b/protected/commands/template/m_template_lirun.xlsx
@@ -792,7 +792,7 @@
     <t>技術員成本</t>
   </si>
   <si>
-    <t>技術員用料比例 清潔（技術員領貨金額/當月生意額）</t>
+    <t>技術員用料比例 清潔（技術員領貨金額/當月IA生意額）</t>
   </si>
   <si>
     <t>&lt;=10% : 5
@@ -803,7 +803,7 @@
 &gt;31% : 0</t>
   </si>
   <si>
-    <t>技術員用料比例 滅蟲（技術員領貨金額/當月生意額）</t>
+    <t>技術員用料比例 滅蟲（技術員領貨金額/當月IB生意額）</t>
   </si>
   <si>
     <t>&lt;=5% : 5
@@ -838,7 +838,7 @@
     <t>財政狀況</t>
   </si>
   <si>
-    <t>毛利率 （當月生意額 - 材料訂購 - 技術員工資）/當月生意額</t>
+    <t>IA,IB毛利率 （當月生意額 - 材料訂購 - 技術員工資）/當月IA,IB生意額</t>
   </si>
   <si>
     <t>&gt;=55% : 5
@@ -1550,12 +1550,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -1682,9 +1682,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1696,28 +1809,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1737,101 +1838,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1842,13 +1849,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1914,25 +1914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1950,7 +1932,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1962,7 +2046,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1974,43 +2088,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2022,25 +2100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2052,31 +2112,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2088,19 +2130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2112,19 +2142,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2142,49 +2178,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2278,45 +2278,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2341,11 +2302,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2365,6 +2343,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2378,11 +2371,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color indexed="62"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2401,246 +2410,237 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2663,10 +2663,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
@@ -2687,7 +2687,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2705,10 +2705,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2726,7 +2726,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2738,31 +2738,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="68" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2777,28 +2777,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2807,16 +2807,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2825,10 +2825,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -2840,7 +2840,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2855,16 +2855,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2876,40 +2876,40 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -2921,16 +2921,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="10" fillId="4" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2942,25 +2942,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="4" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2972,40 +2972,40 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="17" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="5" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1" applyBorder="1">
@@ -3014,7 +3014,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3026,25 +3026,25 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="10" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3053,25 +3053,25 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="6" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="68" applyFont="1" applyBorder="1">
@@ -3083,16 +3083,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="178" fontId="11" fillId="2" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3103,10 +3103,10 @@
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 輔色4" xfId="7"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="40% - 輔色2" xfId="9"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
+    <cellStyle name="40% - 輔色2" xfId="7"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="20% - 輔色4" xfId="9"/>
     <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
@@ -3138,26 +3138,26 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
     <cellStyle name="20% - 輔色2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="20% - 輔色3" xfId="42"/>
-    <cellStyle name="40% - 輔色1" xfId="43"/>
+    <cellStyle name="40% - 輔色1" xfId="41"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="20% - 輔色3" xfId="43"/>
     <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="20% - 輔色5" xfId="48"/>
-    <cellStyle name="40% - 輔色3" xfId="49"/>
-    <cellStyle name="60% - 輔色1" xfId="50"/>
+    <cellStyle name="60% - 輔色1" xfId="47"/>
+    <cellStyle name="40% - 輔色3" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
+    <cellStyle name="20% - 輔色5" xfId="50"/>
     <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="合計" xfId="53"/>
-    <cellStyle name="20% - 輔色6" xfId="54"/>
-    <cellStyle name="40% - 輔色4" xfId="55"/>
-    <cellStyle name="60% - 輔色2" xfId="56"/>
+    <cellStyle name="60% - 輔色2" xfId="52"/>
+    <cellStyle name="40% - 輔色4" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="54" builtinId="47"/>
+    <cellStyle name="合計" xfId="55"/>
+    <cellStyle name="20% - 輔色6" xfId="56"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="40% - 輔色5" xfId="59"/>
-    <cellStyle name="60% - 輔色3" xfId="60"/>
+    <cellStyle name="60% - 輔色3" xfId="59"/>
+    <cellStyle name="40% - 輔色5" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="61" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
     <cellStyle name="20% - 輔色1" xfId="63"/>
@@ -3522,8 +3522,8 @@
   <sheetPr/>
   <dimension ref="A1:H253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="D96" sqref="B96 D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
